--- a/data/pca/factorExposure/factorExposure_2011-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01075853067284325</v>
+        <v>0.01116594060453908</v>
       </c>
       <c r="C2">
-        <v>-0.03007274444132055</v>
+        <v>0.02432503278174894</v>
       </c>
       <c r="D2">
-        <v>-0.02142564896176543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0243687653294695</v>
+      </c>
+      <c r="E2">
+        <v>0.008502023164028491</v>
+      </c>
+      <c r="F2">
+        <v>-0.02510609971274645</v>
+      </c>
+      <c r="G2">
+        <v>-0.000181195540942182</v>
+      </c>
+      <c r="H2">
+        <v>-0.02853158741673902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07528214129719919</v>
+        <v>0.08785874952473502</v>
       </c>
       <c r="C4">
-        <v>-0.05012909480934927</v>
+        <v>0.03341755845384402</v>
       </c>
       <c r="D4">
-        <v>-0.08075905123356555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0701904623266511</v>
+      </c>
+      <c r="E4">
+        <v>0.007731510941088609</v>
+      </c>
+      <c r="F4">
+        <v>-0.04221402525642649</v>
+      </c>
+      <c r="G4">
+        <v>0.01174143432121158</v>
+      </c>
+      <c r="H4">
+        <v>0.04091224412996781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.110379178185197</v>
+        <v>0.1229964873575372</v>
       </c>
       <c r="C6">
-        <v>-0.04777161315934555</v>
+        <v>0.03326158288686484</v>
       </c>
       <c r="D6">
-        <v>-0.008413965611345314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01158771605860989</v>
+      </c>
+      <c r="E6">
+        <v>-0.02384226456965013</v>
+      </c>
+      <c r="F6">
+        <v>-0.05495506520706496</v>
+      </c>
+      <c r="G6">
+        <v>0.03193376424197306</v>
+      </c>
+      <c r="H6">
+        <v>-0.1088947343607581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05553281971677777</v>
+        <v>0.06455723897422329</v>
       </c>
       <c r="C7">
-        <v>-0.02658466204715441</v>
+        <v>0.01209109355888527</v>
       </c>
       <c r="D7">
-        <v>-0.03495615406984315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05097265143076902</v>
+      </c>
+      <c r="E7">
+        <v>0.0300696796791892</v>
+      </c>
+      <c r="F7">
+        <v>-0.04497967697586398</v>
+      </c>
+      <c r="G7">
+        <v>-0.03192674523091799</v>
+      </c>
+      <c r="H7">
+        <v>0.01505812077256695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04112731703020969</v>
+        <v>0.0436901169776337</v>
       </c>
       <c r="C8">
-        <v>-0.01379268407408879</v>
+        <v>0.009624648828017324</v>
       </c>
       <c r="D8">
-        <v>-0.05941818221663054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02413668470156603</v>
+      </c>
+      <c r="E8">
+        <v>0.0126133713608952</v>
+      </c>
+      <c r="F8">
+        <v>-0.06766199540116376</v>
+      </c>
+      <c r="G8">
+        <v>0.05202215475030657</v>
+      </c>
+      <c r="H8">
+        <v>-0.01211800262043567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07155897862854413</v>
+        <v>0.08066432238339249</v>
       </c>
       <c r="C9">
-        <v>-0.03832119177413996</v>
+        <v>0.02223790903401118</v>
       </c>
       <c r="D9">
-        <v>-0.07084440721893397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.063335233822048</v>
+      </c>
+      <c r="E9">
+        <v>0.02539511560421959</v>
+      </c>
+      <c r="F9">
+        <v>-0.03362669260238424</v>
+      </c>
+      <c r="G9">
+        <v>0.02202561814367772</v>
+      </c>
+      <c r="H9">
+        <v>0.04754058834838622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03031211578871316</v>
+        <v>0.04488753940759352</v>
       </c>
       <c r="C10">
-        <v>-0.03239423382289225</v>
+        <v>0.06331829319451043</v>
       </c>
       <c r="D10">
-        <v>0.177993885629033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1752657045813339</v>
+      </c>
+      <c r="E10">
+        <v>0.040827877090288</v>
+      </c>
+      <c r="F10">
+        <v>-0.05526156468823542</v>
+      </c>
+      <c r="G10">
+        <v>-0.03632963650618638</v>
+      </c>
+      <c r="H10">
+        <v>-0.05098951071046307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07295864977947469</v>
+        <v>0.07699044931368765</v>
       </c>
       <c r="C11">
-        <v>-0.04092149378895869</v>
+        <v>0.01888387599523786</v>
       </c>
       <c r="D11">
-        <v>-0.05561565522764115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06638574013682062</v>
+      </c>
+      <c r="E11">
+        <v>-0.008200720678860237</v>
+      </c>
+      <c r="F11">
+        <v>-0.03551926101622038</v>
+      </c>
+      <c r="G11">
+        <v>0.03141014359531404</v>
+      </c>
+      <c r="H11">
+        <v>0.07216475137103259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06072832301259821</v>
+        <v>0.06969719259290551</v>
       </c>
       <c r="C12">
-        <v>-0.04994436967814905</v>
+        <v>0.03179516490803581</v>
       </c>
       <c r="D12">
-        <v>-0.04486151840072696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05042805901712476</v>
+      </c>
+      <c r="E12">
+        <v>0.0100786217313413</v>
+      </c>
+      <c r="F12">
+        <v>-0.02449250734893243</v>
+      </c>
+      <c r="G12">
+        <v>0.01633025205597652</v>
+      </c>
+      <c r="H12">
+        <v>0.03181288224071655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06817305642697807</v>
+        <v>0.0676224051657715</v>
       </c>
       <c r="C13">
-        <v>-0.03367797447935022</v>
+        <v>0.01657310343767662</v>
       </c>
       <c r="D13">
-        <v>-0.04168883196972146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03876310872137984</v>
+      </c>
+      <c r="E13">
+        <v>0.009026634911404846</v>
+      </c>
+      <c r="F13">
+        <v>-0.0255943187211125</v>
+      </c>
+      <c r="G13">
+        <v>0.003601822446909631</v>
+      </c>
+      <c r="H13">
+        <v>0.05261441847235185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03407901227342969</v>
+        <v>0.03980186510275681</v>
       </c>
       <c r="C14">
-        <v>-0.03195273045662739</v>
+        <v>0.02528583867908818</v>
       </c>
       <c r="D14">
-        <v>0.008061379106347971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01500277770284941</v>
+      </c>
+      <c r="E14">
+        <v>0.03016177884600568</v>
+      </c>
+      <c r="F14">
+        <v>-0.01896615239442342</v>
+      </c>
+      <c r="G14">
+        <v>0.02632957857310597</v>
+      </c>
+      <c r="H14">
+        <v>0.05517304302484541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04249430618583985</v>
+        <v>0.0412556084162951</v>
       </c>
       <c r="C15">
-        <v>-0.008422678709191684</v>
+        <v>0.00157274143019064</v>
       </c>
       <c r="D15">
-        <v>-0.01861035879517517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006652902157954412</v>
+      </c>
+      <c r="E15">
+        <v>0.03570641444039985</v>
+      </c>
+      <c r="F15">
+        <v>-0.005441762954759562</v>
+      </c>
+      <c r="G15">
+        <v>0.03337174121355108</v>
+      </c>
+      <c r="H15">
+        <v>0.0251797113564667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06110488802180079</v>
+        <v>0.07176540211566082</v>
       </c>
       <c r="C16">
-        <v>-0.03841084224753966</v>
+        <v>0.02203074555358428</v>
       </c>
       <c r="D16">
-        <v>-0.05065142368378323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06258523012378996</v>
+      </c>
+      <c r="E16">
+        <v>0.002768281377324497</v>
+      </c>
+      <c r="F16">
+        <v>-0.0311431372192571</v>
+      </c>
+      <c r="G16">
+        <v>0.01485541586211869</v>
+      </c>
+      <c r="H16">
+        <v>0.04939121725720229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06422919920952938</v>
+        <v>0.06266716678299949</v>
       </c>
       <c r="C20">
-        <v>-0.02392364214551095</v>
+        <v>0.005789294319915067</v>
       </c>
       <c r="D20">
-        <v>-0.04812449342442669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04121881948787002</v>
+      </c>
+      <c r="E20">
+        <v>0.008874512272059381</v>
+      </c>
+      <c r="F20">
+        <v>-0.0306235123027161</v>
+      </c>
+      <c r="G20">
+        <v>0.02545488071371286</v>
+      </c>
+      <c r="H20">
+        <v>0.04619021193504083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02884913462319548</v>
+        <v>0.02804398022855399</v>
       </c>
       <c r="C21">
-        <v>0.001103922368143796</v>
+        <v>-0.00931098950911944</v>
       </c>
       <c r="D21">
-        <v>-0.01902258747080841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02090035155937138</v>
+      </c>
+      <c r="E21">
+        <v>0.0389805305460085</v>
+      </c>
+      <c r="F21">
+        <v>0.003133716627659139</v>
+      </c>
+      <c r="G21">
+        <v>0.009505430523702478</v>
+      </c>
+      <c r="H21">
+        <v>-0.04834054537049882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07966151293910358</v>
+        <v>0.07167044856797623</v>
       </c>
       <c r="C22">
-        <v>-0.05948495987971821</v>
+        <v>0.03231474307455327</v>
       </c>
       <c r="D22">
-        <v>-0.1401073531256081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1002474581933906</v>
+      </c>
+      <c r="E22">
+        <v>0.6158162417453155</v>
+      </c>
+      <c r="F22">
+        <v>0.06808341435560315</v>
+      </c>
+      <c r="G22">
+        <v>-0.1414550811216499</v>
+      </c>
+      <c r="H22">
+        <v>-0.144686616244824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08066252789154817</v>
+        <v>0.07258040882618325</v>
       </c>
       <c r="C23">
-        <v>-0.0581696289073887</v>
+        <v>0.03097380645377159</v>
       </c>
       <c r="D23">
-        <v>-0.1412387799251002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1012461845554934</v>
+      </c>
+      <c r="E23">
+        <v>0.6178532209647895</v>
+      </c>
+      <c r="F23">
+        <v>0.06727829420682667</v>
+      </c>
+      <c r="G23">
+        <v>-0.1364568215640874</v>
+      </c>
+      <c r="H23">
+        <v>-0.1399034458458279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07710957871314436</v>
+        <v>0.08171214189586543</v>
       </c>
       <c r="C24">
-        <v>-0.04984976401492051</v>
+        <v>0.02751478526817305</v>
       </c>
       <c r="D24">
-        <v>-0.05940447245782379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06344928060184001</v>
+      </c>
+      <c r="E24">
+        <v>0.007852973769491694</v>
+      </c>
+      <c r="F24">
+        <v>-0.04173748796885025</v>
+      </c>
+      <c r="G24">
+        <v>0.02684295975988707</v>
+      </c>
+      <c r="H24">
+        <v>0.03535587371217484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07558819487651247</v>
+        <v>0.08024241234714877</v>
       </c>
       <c r="C25">
-        <v>-0.05199002797512499</v>
+        <v>0.03135948318693556</v>
       </c>
       <c r="D25">
-        <v>-0.06078009560884375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05217412456568134</v>
+      </c>
+      <c r="E25">
+        <v>0.01629361772871864</v>
+      </c>
+      <c r="F25">
+        <v>-0.03632492892840466</v>
+      </c>
+      <c r="G25">
+        <v>0.03864062612544209</v>
+      </c>
+      <c r="H25">
+        <v>0.04243966849242285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04644735056926765</v>
+        <v>0.0460459268220938</v>
       </c>
       <c r="C26">
-        <v>-0.009190682163475707</v>
+        <v>-0.00118848391009493</v>
       </c>
       <c r="D26">
-        <v>-0.01300633593865583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02005526972104212</v>
+      </c>
+      <c r="E26">
+        <v>0.03929268673193041</v>
+      </c>
+      <c r="F26">
+        <v>-0.04017944598394525</v>
+      </c>
+      <c r="G26">
+        <v>0.009063789971540767</v>
+      </c>
+      <c r="H26">
+        <v>0.0460823360603024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04779793301580356</v>
+        <v>0.06916170404603911</v>
       </c>
       <c r="C28">
-        <v>-0.07479316681597417</v>
+        <v>0.1182180992250402</v>
       </c>
       <c r="D28">
-        <v>0.3020085206224699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2945590021640646</v>
+      </c>
+      <c r="E28">
+        <v>0.03503286162447482</v>
+      </c>
+      <c r="F28">
+        <v>-0.06214052670358186</v>
+      </c>
+      <c r="G28">
+        <v>0.01986982648388265</v>
+      </c>
+      <c r="H28">
+        <v>-0.04849128373166045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04602864152384721</v>
+        <v>0.04792721472797005</v>
       </c>
       <c r="C29">
-        <v>-0.02951252062126438</v>
+        <v>0.02107810292512852</v>
       </c>
       <c r="D29">
-        <v>-0.002747605647690642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01263218838739819</v>
+      </c>
+      <c r="E29">
+        <v>0.05687651405484905</v>
+      </c>
+      <c r="F29">
+        <v>-0.02063462452489859</v>
+      </c>
+      <c r="G29">
+        <v>0.01739383423090822</v>
+      </c>
+      <c r="H29">
+        <v>0.0696405295229816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295930915218541</v>
+        <v>0.1266620348301652</v>
       </c>
       <c r="C30">
-        <v>-0.08495013048849789</v>
+        <v>0.05257933638099831</v>
       </c>
       <c r="D30">
-        <v>-0.1146514668024718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08259045705433163</v>
+      </c>
+      <c r="E30">
+        <v>0.05863223907539063</v>
+      </c>
+      <c r="F30">
+        <v>-0.02267718366634507</v>
+      </c>
+      <c r="G30">
+        <v>0.0749481379454796</v>
+      </c>
+      <c r="H30">
+        <v>-0.02585757980745737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04824182781547148</v>
+        <v>0.04941833044399451</v>
       </c>
       <c r="C31">
-        <v>-0.02265022602608037</v>
+        <v>0.009535460871386858</v>
       </c>
       <c r="D31">
-        <v>-0.01954281371637333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03384107088029731</v>
+      </c>
+      <c r="E31">
+        <v>0.02275735337793064</v>
+      </c>
+      <c r="F31">
+        <v>-0.007505976238705833</v>
+      </c>
+      <c r="G31">
+        <v>-0.003832312564106419</v>
+      </c>
+      <c r="H31">
+        <v>0.06941906166963986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03699880393890567</v>
+        <v>0.04012198097928362</v>
       </c>
       <c r="C32">
-        <v>-0.02432794704464974</v>
+        <v>0.02330955161650125</v>
       </c>
       <c r="D32">
-        <v>-0.02520773666804404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009064384683423908</v>
+      </c>
+      <c r="E32">
+        <v>0.05468297372120635</v>
+      </c>
+      <c r="F32">
+        <v>0.001085401280202194</v>
+      </c>
+      <c r="G32">
+        <v>0.03481432629139334</v>
+      </c>
+      <c r="H32">
+        <v>0.03145501563536379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08658480682407776</v>
+        <v>0.09508589860409632</v>
       </c>
       <c r="C33">
-        <v>-0.03912256116469492</v>
+        <v>0.0187980147115634</v>
       </c>
       <c r="D33">
-        <v>-0.05229929206933372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04873742421376071</v>
+      </c>
+      <c r="E33">
+        <v>0.01327369703383828</v>
+      </c>
+      <c r="F33">
+        <v>-0.01150117723643884</v>
+      </c>
+      <c r="G33">
+        <v>0.01330870755374459</v>
+      </c>
+      <c r="H33">
+        <v>0.06470573603095045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05966369883697444</v>
+        <v>0.06449993335228206</v>
       </c>
       <c r="C34">
-        <v>-0.02342337157188267</v>
+        <v>0.006515676124576876</v>
       </c>
       <c r="D34">
-        <v>-0.05219405953794347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04962160641688305</v>
+      </c>
+      <c r="E34">
+        <v>0.004966826115556745</v>
+      </c>
+      <c r="F34">
+        <v>-0.0240352025589011</v>
+      </c>
+      <c r="G34">
+        <v>0.01882078314234954</v>
+      </c>
+      <c r="H34">
+        <v>0.04937241941048792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03662722830180707</v>
+        <v>0.03800240106821885</v>
       </c>
       <c r="C35">
-        <v>-0.007045952074774125</v>
+        <v>0.0007616568395986147</v>
       </c>
       <c r="D35">
-        <v>-0.02008300776787942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01573916692518596</v>
+      </c>
+      <c r="E35">
+        <v>0.02210038490802547</v>
+      </c>
+      <c r="F35">
+        <v>0.0170120200125759</v>
+      </c>
+      <c r="G35">
+        <v>0.003563440577304961</v>
+      </c>
+      <c r="H35">
+        <v>0.02446752752150823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02509310013316952</v>
+        <v>0.02922643151567632</v>
       </c>
       <c r="C36">
-        <v>-0.01794438175061011</v>
+        <v>0.01315955482237566</v>
       </c>
       <c r="D36">
-        <v>-0.02001789900462862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01765070175893739</v>
+      </c>
+      <c r="E36">
+        <v>0.02736623408445994</v>
+      </c>
+      <c r="F36">
+        <v>-0.02881403691969526</v>
+      </c>
+      <c r="G36">
+        <v>0.004491675315488141</v>
+      </c>
+      <c r="H36">
+        <v>0.04439367944455589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04514190695016982</v>
+        <v>0.04666458388175066</v>
       </c>
       <c r="C38">
-        <v>-0.002749661498720793</v>
+        <v>-0.004452362420707045</v>
       </c>
       <c r="D38">
-        <v>-0.016242526569972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01738973208724456</v>
+      </c>
+      <c r="E38">
+        <v>0.05043994541359677</v>
+      </c>
+      <c r="F38">
+        <v>-0.002545877152840622</v>
+      </c>
+      <c r="G38">
+        <v>0.004199459601074607</v>
+      </c>
+      <c r="H38">
+        <v>0.02449266294573409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0905269885174849</v>
+        <v>0.09920681151225003</v>
       </c>
       <c r="C39">
-        <v>-0.06587908430509905</v>
+        <v>0.04214806066464599</v>
       </c>
       <c r="D39">
-        <v>-0.06295195770500706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07144791217045805</v>
+      </c>
+      <c r="E39">
+        <v>0.001244070454947888</v>
+      </c>
+      <c r="F39">
+        <v>-0.000629861913232781</v>
+      </c>
+      <c r="G39">
+        <v>0.05070224333912665</v>
+      </c>
+      <c r="H39">
+        <v>0.03106892951944856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08116398761764644</v>
+        <v>0.06361229112120813</v>
       </c>
       <c r="C40">
-        <v>-0.03398231669624081</v>
+        <v>0.003786708740270009</v>
       </c>
       <c r="D40">
-        <v>-0.01102896125633391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03172893653509463</v>
+      </c>
+      <c r="E40">
+        <v>0.03558412305987282</v>
+      </c>
+      <c r="F40">
+        <v>0.04016735589773061</v>
+      </c>
+      <c r="G40">
+        <v>0.02459320061901746</v>
+      </c>
+      <c r="H40">
+        <v>-0.08767035458906014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04503716761080943</v>
+        <v>0.04644253357348335</v>
       </c>
       <c r="C41">
-        <v>-0.004296353752353299</v>
+        <v>-0.006623964331500592</v>
       </c>
       <c r="D41">
-        <v>-0.03724881823522967</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0314322109229517</v>
+      </c>
+      <c r="E41">
+        <v>0.002215511945365766</v>
+      </c>
+      <c r="F41">
+        <v>0.01292082604838653</v>
+      </c>
+      <c r="G41">
+        <v>0.01620792521652056</v>
+      </c>
+      <c r="H41">
+        <v>0.01959193911648639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05434956324759319</v>
+        <v>0.06077605135484192</v>
       </c>
       <c r="C43">
-        <v>-0.02492623166120775</v>
+        <v>0.01363971223534069</v>
       </c>
       <c r="D43">
-        <v>-0.0136417208463551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02852061525243147</v>
+      </c>
+      <c r="E43">
+        <v>0.0216185512439253</v>
+      </c>
+      <c r="F43">
+        <v>-0.01730717606288905</v>
+      </c>
+      <c r="G43">
+        <v>-0.005633437812242154</v>
+      </c>
+      <c r="H43">
+        <v>0.0617227213183871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09619368080905082</v>
+        <v>0.09425899430056536</v>
       </c>
       <c r="C44">
-        <v>-0.08099994305894664</v>
+        <v>0.05126195268521952</v>
       </c>
       <c r="D44">
-        <v>-0.07558817900077383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07124954490645896</v>
+      </c>
+      <c r="E44">
+        <v>0.05625460558136632</v>
+      </c>
+      <c r="F44">
+        <v>-0.09661369169059884</v>
+      </c>
+      <c r="G44">
+        <v>0.04125226184914664</v>
+      </c>
+      <c r="H44">
+        <v>0.07727030199769772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02812166047274824</v>
+        <v>0.03590445905897435</v>
       </c>
       <c r="C46">
-        <v>-0.01471912318602549</v>
+        <v>0.008658666984723014</v>
       </c>
       <c r="D46">
-        <v>-0.0320929517354309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03627429908469951</v>
+      </c>
+      <c r="E46">
+        <v>0.03090862508809692</v>
+      </c>
+      <c r="F46">
+        <v>-0.01616462338375465</v>
+      </c>
+      <c r="G46">
+        <v>0.0070557085316189</v>
+      </c>
+      <c r="H46">
+        <v>0.01937383236697606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03560947004461486</v>
+        <v>0.04169975867344379</v>
       </c>
       <c r="C47">
-        <v>-0.02363888954531665</v>
+        <v>0.01824281332729872</v>
       </c>
       <c r="D47">
-        <v>-0.0002173805530957074</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007095372096483286</v>
+      </c>
+      <c r="E47">
+        <v>0.03980959334715729</v>
+      </c>
+      <c r="F47">
+        <v>0.008589731482868491</v>
+      </c>
+      <c r="G47">
+        <v>-0.02419691655730911</v>
+      </c>
+      <c r="H47">
+        <v>0.02867426951344784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03668845912996694</v>
+        <v>0.03981300266624897</v>
       </c>
       <c r="C48">
-        <v>-0.01857060244230389</v>
+        <v>0.01007913463707516</v>
       </c>
       <c r="D48">
-        <v>-0.03085473087434152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02050585166981105</v>
+      </c>
+      <c r="E48">
+        <v>0.03798229873874543</v>
+      </c>
+      <c r="F48">
+        <v>-0.01395501159870658</v>
+      </c>
+      <c r="G48">
+        <v>0.02290252427815725</v>
+      </c>
+      <c r="H48">
+        <v>0.02633180469112286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1635259492338949</v>
+        <v>0.1979740631839324</v>
       </c>
       <c r="C49">
-        <v>-0.04673883576824989</v>
+        <v>0.02895560536291496</v>
       </c>
       <c r="D49">
-        <v>-0.005301067892478833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0266734598436717</v>
+      </c>
+      <c r="E49">
+        <v>-0.1644323619054344</v>
+      </c>
+      <c r="F49">
+        <v>-0.03162846353043452</v>
+      </c>
+      <c r="G49">
+        <v>-0.1416865741211306</v>
+      </c>
+      <c r="H49">
+        <v>-0.2480791799483307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04334767873807222</v>
+        <v>0.04627885505478349</v>
       </c>
       <c r="C50">
-        <v>-0.02034900499979667</v>
+        <v>0.009182240636718143</v>
       </c>
       <c r="D50">
-        <v>-0.0392147878121761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03930982409763678</v>
+      </c>
+      <c r="E50">
+        <v>0.03498950474848608</v>
+      </c>
+      <c r="F50">
+        <v>-0.009967605179297331</v>
+      </c>
+      <c r="G50">
+        <v>0.002790476070414005</v>
+      </c>
+      <c r="H50">
+        <v>0.07618358930520722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02990303776056906</v>
+        <v>0.0352371765412865</v>
       </c>
       <c r="C51">
-        <v>-0.01039709287663215</v>
+        <v>0.005900454419726295</v>
       </c>
       <c r="D51">
-        <v>-0.0005057337689846762</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001676878582684325</v>
+      </c>
+      <c r="E51">
+        <v>0.009938097305228193</v>
+      </c>
+      <c r="F51">
+        <v>-0.01048097152939118</v>
+      </c>
+      <c r="G51">
+        <v>-0.01308734707899617</v>
+      </c>
+      <c r="H51">
+        <v>-0.01627821267421792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1560436696686083</v>
+        <v>0.1605128547459752</v>
       </c>
       <c r="C53">
-        <v>-0.07094286671240078</v>
+        <v>0.04253494011943802</v>
       </c>
       <c r="D53">
-        <v>0.0009014420134873774</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0278102071946655</v>
+      </c>
+      <c r="E53">
+        <v>-0.03501586625102344</v>
+      </c>
+      <c r="F53">
+        <v>0.0008327825176804861</v>
+      </c>
+      <c r="G53">
+        <v>0.01844812902904071</v>
+      </c>
+      <c r="H53">
+        <v>0.1985333062180136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05712619597459117</v>
+        <v>0.05815254271067143</v>
       </c>
       <c r="C54">
-        <v>-0.01982842425162208</v>
+        <v>0.01044589850629068</v>
       </c>
       <c r="D54">
-        <v>-0.01819866308077253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01441570155262072</v>
+      </c>
+      <c r="E54">
+        <v>0.0501793939360754</v>
+      </c>
+      <c r="F54">
+        <v>-0.01911505799700628</v>
+      </c>
+      <c r="G54">
+        <v>0.04887049486291709</v>
+      </c>
+      <c r="H54">
+        <v>0.03772911259159561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1030091153028812</v>
+        <v>0.1041389892784988</v>
       </c>
       <c r="C55">
-        <v>-0.04992004527581697</v>
+        <v>0.02916410768778986</v>
       </c>
       <c r="D55">
-        <v>-0.01902886611122662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03052268794000148</v>
+      </c>
+      <c r="E55">
+        <v>-0.0004916399298135323</v>
+      </c>
+      <c r="F55">
+        <v>-0.01145703096638953</v>
+      </c>
+      <c r="G55">
+        <v>0.02382147865717233</v>
+      </c>
+      <c r="H55">
+        <v>0.1558988067519791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1526531038291555</v>
+        <v>0.1585042967840978</v>
       </c>
       <c r="C56">
-        <v>-0.08122519236563543</v>
+        <v>0.04917374750519635</v>
       </c>
       <c r="D56">
-        <v>-0.003262100755834665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04096730748203879</v>
+      </c>
+      <c r="E56">
+        <v>-0.01826801822486366</v>
+      </c>
+      <c r="F56">
+        <v>-0.01902314686888072</v>
+      </c>
+      <c r="G56">
+        <v>0.01636700676682409</v>
+      </c>
+      <c r="H56">
+        <v>0.1978003428785941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1326784706235568</v>
+        <v>0.1000349197256547</v>
       </c>
       <c r="C58">
-        <v>0.009195186912216454</v>
+        <v>-0.0504138796217237</v>
       </c>
       <c r="D58">
-        <v>-0.04197590010801702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03014194531441853</v>
+      </c>
+      <c r="E58">
+        <v>0.1262965125034959</v>
+      </c>
+      <c r="F58">
+        <v>-0.01207509706134081</v>
+      </c>
+      <c r="G58">
+        <v>-0.09174388998634239</v>
+      </c>
+      <c r="H58">
+        <v>-0.1537695942505119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1218965762403642</v>
+        <v>0.1456786215958026</v>
       </c>
       <c r="C59">
-        <v>-0.08272386231829751</v>
+        <v>0.1234352813054161</v>
       </c>
       <c r="D59">
-        <v>0.3910045518766626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3512863860413642</v>
+      </c>
+      <c r="E59">
+        <v>0.03065342554679157</v>
+      </c>
+      <c r="F59">
+        <v>-0.00432884621717318</v>
+      </c>
+      <c r="G59">
+        <v>-0.01151126690128116</v>
+      </c>
+      <c r="H59">
+        <v>0.01045999917263463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2103653458087438</v>
+        <v>0.2389016295290629</v>
       </c>
       <c r="C60">
-        <v>-0.08726748217499747</v>
+        <v>0.05373766875242805</v>
       </c>
       <c r="D60">
-        <v>-0.01729879105636816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04674969361102539</v>
+      </c>
+      <c r="E60">
+        <v>-0.1137647493721579</v>
+      </c>
+      <c r="F60">
+        <v>-0.04389278003844005</v>
+      </c>
+      <c r="G60">
+        <v>-0.02439985599361596</v>
+      </c>
+      <c r="H60">
+        <v>-0.1450707348229011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08165209811727835</v>
+        <v>0.08710256702845712</v>
       </c>
       <c r="C61">
-        <v>-0.04477239153944037</v>
+        <v>0.02682065775096699</v>
       </c>
       <c r="D61">
-        <v>-0.03497362708757118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0446958199379829</v>
+      </c>
+      <c r="E61">
+        <v>0.003467764890033179</v>
+      </c>
+      <c r="F61">
+        <v>-0.00530775162848841</v>
+      </c>
+      <c r="G61">
+        <v>0.02409142738297625</v>
+      </c>
+      <c r="H61">
+        <v>0.06331014977091134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1333967057861211</v>
+        <v>0.1367297339296923</v>
       </c>
       <c r="C62">
-        <v>-0.05458345993102083</v>
+        <v>0.02452262873962797</v>
       </c>
       <c r="D62">
-        <v>-0.007167981960789082</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04394613884523552</v>
+      </c>
+      <c r="E62">
+        <v>-0.05360723012269215</v>
+      </c>
+      <c r="F62">
+        <v>0.006774194089369383</v>
+      </c>
+      <c r="G62">
+        <v>0.06257810206308502</v>
+      </c>
+      <c r="H62">
+        <v>0.1969268348992319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05306993270922257</v>
+        <v>0.05268083709189457</v>
       </c>
       <c r="C63">
-        <v>-0.02260747065963451</v>
+        <v>0.01266605999105957</v>
       </c>
       <c r="D63">
-        <v>-0.02438133321698611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02018485042415322</v>
+      </c>
+      <c r="E63">
+        <v>0.04206382614723585</v>
+      </c>
+      <c r="F63">
+        <v>-0.004548056426666033</v>
+      </c>
+      <c r="G63">
+        <v>0.02784294494651051</v>
+      </c>
+      <c r="H63">
+        <v>0.03454031688956837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055387701018621</v>
+        <v>0.1090269112186007</v>
       </c>
       <c r="C64">
-        <v>-0.02771108986054094</v>
+        <v>0.01023440063664829</v>
       </c>
       <c r="D64">
-        <v>-0.02752421047746804</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02868528105167372</v>
+      </c>
+      <c r="E64">
+        <v>0.03220270539515017</v>
+      </c>
+      <c r="F64">
+        <v>-0.04458422889825991</v>
+      </c>
+      <c r="G64">
+        <v>0.05741181687509683</v>
+      </c>
+      <c r="H64">
+        <v>0.02295719966265293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1287764202205393</v>
+        <v>0.1295720156034545</v>
       </c>
       <c r="C65">
-        <v>-0.05454658724033024</v>
+        <v>0.03674184853192932</v>
       </c>
       <c r="D65">
-        <v>-0.01629821913554657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01511407580020607</v>
+      </c>
+      <c r="E65">
+        <v>-0.008364590054614086</v>
+      </c>
+      <c r="F65">
+        <v>-0.05356996552101692</v>
+      </c>
+      <c r="G65">
+        <v>0.06336292188234241</v>
+      </c>
+      <c r="H65">
+        <v>-0.1246320235596742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1497165964718085</v>
+        <v>0.1519664838940139</v>
       </c>
       <c r="C66">
-        <v>-0.06511016767810587</v>
+        <v>0.0283727644007171</v>
       </c>
       <c r="D66">
-        <v>-0.09927216622624183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1028780443217262</v>
+      </c>
+      <c r="E66">
+        <v>-0.0266381122076236</v>
+      </c>
+      <c r="F66">
+        <v>-0.001011231406532752</v>
+      </c>
+      <c r="G66">
+        <v>0.06704437810669965</v>
+      </c>
+      <c r="H66">
+        <v>0.09185156771957625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07633289016165988</v>
+        <v>0.08616273113782391</v>
       </c>
       <c r="C67">
-        <v>-0.00837487548717235</v>
+        <v>-0.002776987898247517</v>
       </c>
       <c r="D67">
-        <v>-0.02296801206913293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03091667217754199</v>
+      </c>
+      <c r="E67">
+        <v>0.02036184410655164</v>
+      </c>
+      <c r="F67">
+        <v>-0.01824757883751366</v>
+      </c>
+      <c r="G67">
+        <v>-0.01008050695088583</v>
+      </c>
+      <c r="H67">
+        <v>0.02337882161561725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05622404183971286</v>
+        <v>0.06365659608820529</v>
       </c>
       <c r="C68">
-        <v>-0.0537398659126249</v>
+        <v>0.09020354250715963</v>
       </c>
       <c r="D68">
-        <v>0.2570756807473723</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2616968670170844</v>
+      </c>
+      <c r="E68">
+        <v>0.04277425572176229</v>
+      </c>
+      <c r="F68">
+        <v>-0.01800170023826477</v>
+      </c>
+      <c r="G68">
+        <v>-0.006663664735130605</v>
+      </c>
+      <c r="H68">
+        <v>0.01871034639019905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05382343146429575</v>
+        <v>0.05260510589913401</v>
       </c>
       <c r="C69">
-        <v>-0.014981906823766</v>
+        <v>0.0021453879551532</v>
       </c>
       <c r="D69">
-        <v>-0.02588283592471202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0204782183544325</v>
+      </c>
+      <c r="E69">
+        <v>0.02434890570258974</v>
+      </c>
+      <c r="F69">
+        <v>0.01315428061220688</v>
+      </c>
+      <c r="G69">
+        <v>0.001465387113023097</v>
+      </c>
+      <c r="H69">
+        <v>0.04919884486456966</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002801857306746916</v>
+        <v>0.02802244574111806</v>
       </c>
       <c r="C70">
-        <v>0.005558408116609985</v>
+        <v>-0.000999051356975028</v>
       </c>
       <c r="D70">
-        <v>0.01320617295807883</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.007864251955235532</v>
+      </c>
+      <c r="E70">
+        <v>-0.01950160213643882</v>
+      </c>
+      <c r="F70">
+        <v>-0.003461820899825088</v>
+      </c>
+      <c r="G70">
+        <v>-0.02771292364866656</v>
+      </c>
+      <c r="H70">
+        <v>-0.02991259686220261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05524493244523479</v>
+        <v>0.0686360458332483</v>
       </c>
       <c r="C71">
-        <v>-0.05346637242098675</v>
+        <v>0.09889149869956189</v>
       </c>
       <c r="D71">
-        <v>0.2924969557977923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2891041375317896</v>
+      </c>
+      <c r="E71">
+        <v>0.0403618180038021</v>
+      </c>
+      <c r="F71">
+        <v>-0.04775253199162545</v>
+      </c>
+      <c r="G71">
+        <v>-0.000640570164304401</v>
+      </c>
+      <c r="H71">
+        <v>0.01174336830220308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.142560037828781</v>
+        <v>0.1441828867437217</v>
       </c>
       <c r="C72">
-        <v>-0.05652950476160823</v>
+        <v>0.02952891547732682</v>
       </c>
       <c r="D72">
-        <v>0.001863986717852867</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003293080374017811</v>
+      </c>
+      <c r="E72">
+        <v>-0.05574331310905287</v>
+      </c>
+      <c r="F72">
+        <v>0.1588218478112806</v>
+      </c>
+      <c r="G72">
+        <v>0.1221476122159517</v>
+      </c>
+      <c r="H72">
+        <v>-0.01220306383251254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2883418224610433</v>
+        <v>0.2892252097893061</v>
       </c>
       <c r="C73">
-        <v>-0.08829683372222848</v>
+        <v>0.01856071200270048</v>
       </c>
       <c r="D73">
-        <v>-0.04171285240983132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09707298948346181</v>
+      </c>
+      <c r="E73">
+        <v>-0.2472807370103838</v>
+      </c>
+      <c r="F73">
+        <v>-0.04970557387896332</v>
+      </c>
+      <c r="G73">
+        <v>-0.2609083974568068</v>
+      </c>
+      <c r="H73">
+        <v>-0.4231196182849188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08516569690651857</v>
+        <v>0.09294090362635252</v>
       </c>
       <c r="C74">
-        <v>-0.07384159732880174</v>
+        <v>0.05299718814657421</v>
       </c>
       <c r="D74">
-        <v>-0.007343834815133402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03996066825976025</v>
+      </c>
+      <c r="E74">
+        <v>-0.006235309550726142</v>
+      </c>
+      <c r="F74">
+        <v>0.004287099884138404</v>
+      </c>
+      <c r="G74">
+        <v>-0.02129911209278096</v>
+      </c>
+      <c r="H74">
+        <v>0.1296720825397389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1010312413751852</v>
+        <v>0.1035236737569694</v>
       </c>
       <c r="C75">
-        <v>-0.04603888095475567</v>
+        <v>0.02061094210469152</v>
       </c>
       <c r="D75">
-        <v>-0.01635303355456525</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02563857595031572</v>
+      </c>
+      <c r="E75">
+        <v>-0.002777176858257258</v>
+      </c>
+      <c r="F75">
+        <v>-0.001183384497807465</v>
+      </c>
+      <c r="G75">
+        <v>-0.0009116615327000591</v>
+      </c>
+      <c r="H75">
+        <v>0.1013075737911475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1350879846328154</v>
+        <v>0.1430911102742227</v>
       </c>
       <c r="C76">
-        <v>-0.07633283331343128</v>
+        <v>0.0482496966412011</v>
       </c>
       <c r="D76">
-        <v>-0.02730801193593168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05383219424593415</v>
+      </c>
+      <c r="E76">
+        <v>0.01064478850861161</v>
+      </c>
+      <c r="F76">
+        <v>-0.03397405865963599</v>
+      </c>
+      <c r="G76">
+        <v>0.02477492037599571</v>
+      </c>
+      <c r="H76">
+        <v>0.2173374080254935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1183819482037633</v>
+        <v>0.1031771930987427</v>
       </c>
       <c r="C77">
-        <v>-0.006854486327206957</v>
+        <v>-0.0245552223401995</v>
       </c>
       <c r="D77">
-        <v>-0.08473990797308957</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03563547017442144</v>
+      </c>
+      <c r="E77">
+        <v>0.03564010656019815</v>
+      </c>
+      <c r="F77">
+        <v>-0.1134845034102724</v>
+      </c>
+      <c r="G77">
+        <v>0.8123869506019005</v>
+      </c>
+      <c r="H77">
+        <v>-0.3472823183249627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1080236760815224</v>
+        <v>0.1521506425002254</v>
       </c>
       <c r="C78">
-        <v>-0.0343614199202586</v>
+        <v>0.02754767631498275</v>
       </c>
       <c r="D78">
-        <v>-0.09299307239143942</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07977423707741824</v>
+      </c>
+      <c r="E78">
+        <v>0.04971051816462328</v>
+      </c>
+      <c r="F78">
+        <v>-0.05858194279932354</v>
+      </c>
+      <c r="G78">
+        <v>0.05310045833101643</v>
+      </c>
+      <c r="H78">
+        <v>-0.06517852039700983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1484942308005346</v>
+        <v>0.1481715329931274</v>
       </c>
       <c r="C79">
-        <v>-0.06456331283876628</v>
+        <v>0.02990446204082873</v>
       </c>
       <c r="D79">
-        <v>-0.02340012408662986</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0410317188264314</v>
+      </c>
+      <c r="E79">
+        <v>-0.01619036880852818</v>
+      </c>
+      <c r="F79">
+        <v>-0.01549829086716176</v>
+      </c>
+      <c r="G79">
+        <v>0.01881262018745245</v>
+      </c>
+      <c r="H79">
+        <v>0.1591592024754099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04103944914914067</v>
+        <v>0.04131240109892913</v>
       </c>
       <c r="C80">
-        <v>-0.01813804247511932</v>
+        <v>0.01050593607512416</v>
       </c>
       <c r="D80">
-        <v>-0.03405846220805187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01700090170880258</v>
+      </c>
+      <c r="E80">
+        <v>-0.03838958431132296</v>
+      </c>
+      <c r="F80">
+        <v>-0.00171677001560384</v>
+      </c>
+      <c r="G80">
+        <v>-0.01904090534056324</v>
+      </c>
+      <c r="H80">
+        <v>0.04050582498177555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1233541782211263</v>
+        <v>0.124389369603924</v>
       </c>
       <c r="C81">
-        <v>-0.05584334444530981</v>
+        <v>0.02962377553589553</v>
       </c>
       <c r="D81">
-        <v>-0.02882751614372512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03133005545488605</v>
+      </c>
+      <c r="E81">
+        <v>0.01129067497146126</v>
+      </c>
+      <c r="F81">
+        <v>-0.00497058616285396</v>
+      </c>
+      <c r="G81">
+        <v>-0.01627868657455453</v>
+      </c>
+      <c r="H81">
+        <v>0.1474850064832754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1337017563010326</v>
+        <v>0.130973727508016</v>
       </c>
       <c r="C82">
-        <v>-0.06886093578465491</v>
+        <v>0.04001503896839574</v>
       </c>
       <c r="D82">
-        <v>-0.005842776684549561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03836994890512553</v>
+      </c>
+      <c r="E82">
+        <v>-0.02413024130713237</v>
+      </c>
+      <c r="F82">
+        <v>-0.03955693968145443</v>
+      </c>
+      <c r="G82">
+        <v>-0.003197032409179304</v>
+      </c>
+      <c r="H82">
+        <v>0.2210704084512847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06717454607652738</v>
+        <v>0.08126532992749988</v>
       </c>
       <c r="C83">
-        <v>0.03123963659689871</v>
+        <v>-0.04219344555464698</v>
       </c>
       <c r="D83">
-        <v>-0.02498697037991313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02203252146345867</v>
+      </c>
+      <c r="E83">
+        <v>0.02493105403195475</v>
+      </c>
+      <c r="F83">
+        <v>-0.04385370192963269</v>
+      </c>
+      <c r="G83">
+        <v>-0.06366868992976284</v>
+      </c>
+      <c r="H83">
+        <v>-0.01479013318345177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02812972762798352</v>
+        <v>0.03589106466495853</v>
       </c>
       <c r="C84">
-        <v>-0.02962626235852263</v>
+        <v>0.01991885850698325</v>
       </c>
       <c r="D84">
-        <v>-0.03469215477699526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03718159455316577</v>
+      </c>
+      <c r="E84">
+        <v>0.01865791100797897</v>
+      </c>
+      <c r="F84">
+        <v>0.04308047660234001</v>
+      </c>
+      <c r="G84">
+        <v>-0.04660319937243881</v>
+      </c>
+      <c r="H84">
+        <v>0.0304790876734272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1185006975318281</v>
+        <v>0.1213524883896994</v>
       </c>
       <c r="C85">
-        <v>-0.03874264035784242</v>
+        <v>0.01462911307460227</v>
       </c>
       <c r="D85">
-        <v>-0.04919919675435224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03860039594258354</v>
+      </c>
+      <c r="E85">
+        <v>0.01659089603927162</v>
+      </c>
+      <c r="F85">
+        <v>-0.03093786983149423</v>
+      </c>
+      <c r="G85">
+        <v>-0.003161959852138981</v>
+      </c>
+      <c r="H85">
+        <v>0.1437035515848198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05325192900981209</v>
+        <v>0.05726886637462777</v>
       </c>
       <c r="C86">
-        <v>-0.02132963286589153</v>
+        <v>0.007576879878300727</v>
       </c>
       <c r="D86">
-        <v>-0.05966610803678404</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03497614005143142</v>
+      </c>
+      <c r="E86">
+        <v>0.03934843376836297</v>
+      </c>
+      <c r="F86">
+        <v>-0.03535019145018573</v>
+      </c>
+      <c r="G86">
+        <v>-0.03923207741430562</v>
+      </c>
+      <c r="H86">
+        <v>-0.03548803469410722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1233193440488202</v>
+        <v>0.1253929169169344</v>
       </c>
       <c r="C87">
-        <v>-0.06642691952797992</v>
+        <v>0.03019217179465141</v>
       </c>
       <c r="D87">
-        <v>-0.07175288834142275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07010978938039304</v>
+      </c>
+      <c r="E87">
+        <v>0.01727599633897928</v>
+      </c>
+      <c r="F87">
+        <v>-0.0208108367799717</v>
+      </c>
+      <c r="G87">
+        <v>0.1277667240422791</v>
+      </c>
+      <c r="H87">
+        <v>-0.07427450233001297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05412054073296381</v>
+        <v>0.06257545539735654</v>
       </c>
       <c r="C88">
-        <v>-0.02729614358886172</v>
+        <v>0.01605915336844426</v>
       </c>
       <c r="D88">
-        <v>-0.02540776799495863</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03842172138255079</v>
+      </c>
+      <c r="E88">
+        <v>0.007553901312528873</v>
+      </c>
+      <c r="F88">
+        <v>-0.01719492324994512</v>
+      </c>
+      <c r="G88">
+        <v>0.01707466823494983</v>
+      </c>
+      <c r="H88">
+        <v>0.0382660405738845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08598702938782242</v>
+        <v>0.1063046801044035</v>
       </c>
       <c r="C89">
-        <v>-0.07668756481989486</v>
+        <v>0.1265190965340191</v>
       </c>
       <c r="D89">
-        <v>0.320418461643419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3364731926495471</v>
+      </c>
+      <c r="E89">
+        <v>0.06164849563771239</v>
+      </c>
+      <c r="F89">
+        <v>-0.07383237847609729</v>
+      </c>
+      <c r="G89">
+        <v>-0.02438026859446606</v>
+      </c>
+      <c r="H89">
+        <v>0.0126701435142727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06725050500924423</v>
+        <v>0.08302530327809586</v>
       </c>
       <c r="C90">
-        <v>-0.06370646623974198</v>
+        <v>0.1037546547321938</v>
       </c>
       <c r="D90">
-        <v>0.2799709854907512</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.277351007348235</v>
+      </c>
+      <c r="E90">
+        <v>0.04942605224700986</v>
+      </c>
+      <c r="F90">
+        <v>-0.03997800886195588</v>
+      </c>
+      <c r="G90">
+        <v>0.02022462195033013</v>
+      </c>
+      <c r="H90">
+        <v>-0.002460299944287434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0906077412914487</v>
+        <v>0.09149638461812284</v>
       </c>
       <c r="C91">
-        <v>-0.04917274744790224</v>
+        <v>0.02525897916661579</v>
       </c>
       <c r="D91">
-        <v>-0.01435800534102549</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03304327464006474</v>
+      </c>
+      <c r="E91">
+        <v>0.006341977937806006</v>
+      </c>
+      <c r="F91">
+        <v>0.001768089117368472</v>
+      </c>
+      <c r="G91">
+        <v>-0.02144060478539694</v>
+      </c>
+      <c r="H91">
+        <v>0.09110923197588171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07211529003386528</v>
+        <v>0.08617103759778018</v>
       </c>
       <c r="C92">
-        <v>-0.07890744390883822</v>
+        <v>0.125963576997835</v>
       </c>
       <c r="D92">
-        <v>0.3400483441031905</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3304673936347556</v>
+      </c>
+      <c r="E92">
+        <v>0.04180021251204503</v>
+      </c>
+      <c r="F92">
+        <v>-0.04070816825219277</v>
+      </c>
+      <c r="G92">
+        <v>0.01214933956741189</v>
+      </c>
+      <c r="H92">
+        <v>0.01717426314946137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06259491191279103</v>
+        <v>0.08084639631910841</v>
       </c>
       <c r="C93">
-        <v>-0.06902057650001447</v>
+        <v>0.1156551226885579</v>
       </c>
       <c r="D93">
-        <v>0.3005423982996844</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2929123900358485</v>
+      </c>
+      <c r="E93">
+        <v>0.02287912223737466</v>
+      </c>
+      <c r="F93">
+        <v>-0.03460491620829558</v>
+      </c>
+      <c r="G93">
+        <v>0.01828524712829202</v>
+      </c>
+      <c r="H93">
+        <v>0.006036689776038804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1356144439534572</v>
+        <v>0.1296840414895952</v>
       </c>
       <c r="C94">
-        <v>-0.04172740414218193</v>
+        <v>0.008014419022686965</v>
       </c>
       <c r="D94">
-        <v>-0.04440353555941412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04969991146818074</v>
+      </c>
+      <c r="E94">
+        <v>-0.0193676464661664</v>
+      </c>
+      <c r="F94">
+        <v>-0.0100833806797527</v>
+      </c>
+      <c r="G94">
+        <v>-0.04192947783617017</v>
+      </c>
+      <c r="H94">
+        <v>0.1135481192496119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1226066483621186</v>
+        <v>0.129688203479897</v>
       </c>
       <c r="C95">
-        <v>-0.01719585960980519</v>
+        <v>-0.009529704137377927</v>
       </c>
       <c r="D95">
-        <v>-0.05488121072829841</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05867626012624714</v>
+      </c>
+      <c r="E95">
+        <v>0.009232440526368456</v>
+      </c>
+      <c r="F95">
+        <v>-0.05298218234885448</v>
+      </c>
+      <c r="G95">
+        <v>0.01291150320078351</v>
+      </c>
+      <c r="H95">
+        <v>-0.07775559546648923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2206052380553155</v>
+        <v>0.1978483917308981</v>
       </c>
       <c r="C97">
-        <v>-0.03981573503322995</v>
+        <v>-0.005135975451147625</v>
       </c>
       <c r="D97">
-        <v>0.0996449092304173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0749915690745995</v>
+      </c>
+      <c r="E97">
+        <v>-0.05882998813827399</v>
+      </c>
+      <c r="F97">
+        <v>0.9278172685109833</v>
+      </c>
+      <c r="G97">
+        <v>0.09561581367001207</v>
+      </c>
+      <c r="H97">
+        <v>-0.02157255653266273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2445851841041989</v>
+        <v>0.2736829948670344</v>
       </c>
       <c r="C98">
-        <v>-0.05034365348183618</v>
+        <v>0.009958894141270274</v>
       </c>
       <c r="D98">
-        <v>-0.01725064642370824</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04521912659104953</v>
+      </c>
+      <c r="E98">
+        <v>-0.1918688837233169</v>
+      </c>
+      <c r="F98">
+        <v>-0.03894489734793469</v>
+      </c>
+      <c r="G98">
+        <v>-0.3121201719651647</v>
+      </c>
+      <c r="H98">
+        <v>-0.1914017144261441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3891948321231748</v>
+        <v>0.2514717459705814</v>
       </c>
       <c r="C99">
-        <v>0.900302942994064</v>
+        <v>-0.9171327626798466</v>
       </c>
       <c r="D99">
-        <v>0.08083386545094769</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2435891264150219</v>
+      </c>
+      <c r="E99">
+        <v>0.07000029453523102</v>
+      </c>
+      <c r="F99">
+        <v>-0.07023805215042915</v>
+      </c>
+      <c r="G99">
+        <v>-0.001804188543444766</v>
+      </c>
+      <c r="H99">
+        <v>0.07702216238304405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04583127972405424</v>
+        <v>0.04785483246269569</v>
       </c>
       <c r="C101">
-        <v>-0.02962640928378173</v>
+        <v>0.0213033751876162</v>
       </c>
       <c r="D101">
-        <v>-0.003529143714183423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01291653196967595</v>
+      </c>
+      <c r="E101">
+        <v>0.05685037928711204</v>
+      </c>
+      <c r="F101">
+        <v>-0.0201950638395028</v>
+      </c>
+      <c r="G101">
+        <v>0.0164766235202304</v>
+      </c>
+      <c r="H101">
+        <v>0.06872892367238918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
